--- a/data/data_dictionary/IHS_MobileData_Dictionary_V3.xlsx
+++ b/data/data_dictionary/IHS_MobileData_Dictionary_V3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thaliaviranda/Documents/GitHub/PassiveSensing-Symptoms-NetworkAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thaliaviranda/Documents/GitHub/PassiveSensing-Symptoms-NetworkAnalysis/data/data_dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D601F0C-1530-624C-A5D8-56B250CC13FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA506DF2-E3FB-A346-8570-73C42219E3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{AD1D09AB-7936-3749-96D6-6A299E295C7F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="1" xr2:uid="{AD1D09AB-7936-3749-96D6-6A299E295C7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Fitbit_since2014" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="247">
   <si>
     <t xml:space="preserve">Fitbit-Activity </t>
   </si>
@@ -779,6 +779,15 @@
   </si>
   <si>
     <t>the competition results (average sleep/steps per subject per day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>sensor</t>
+  </si>
+  <si>
+    <t>quarterly</t>
   </si>
 </sst>
 </file>
@@ -1470,32 +1479,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1922,7 +1931,7 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1963,7 +1972,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="76"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +2005,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
@@ -2019,7 +2028,7 @@
       <c r="N5" s="26"/>
     </row>
     <row r="6" spans="2:14" ht="75" x14ac:dyDescent="0.3">
-      <c r="B6" s="76"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="64" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2057,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="50" x14ac:dyDescent="0.3">
-      <c r="B7" s="76"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="64" t="s">
         <v>6</v>
       </c>
@@ -2073,7 +2082,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="76"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="23" t="s">
         <v>7</v>
       </c>
@@ -2102,7 +2111,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="77"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="23" t="s">
         <v>8</v>
       </c>
@@ -2125,7 +2134,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="73" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -2150,7 +2159,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="77"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="23" t="s">
         <v>11</v>
       </c>
@@ -2173,7 +2182,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="25" x14ac:dyDescent="0.3">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="73" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="64" t="s">
@@ -2214,7 +2223,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="50" x14ac:dyDescent="0.3">
-      <c r="B13" s="76"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="64" t="s">
         <v>14</v>
       </c>
@@ -2253,7 +2262,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="50" x14ac:dyDescent="0.3">
-      <c r="B14" s="76"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="64" t="s">
         <v>15</v>
       </c>
@@ -2286,7 +2295,7 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="50" x14ac:dyDescent="0.3">
-      <c r="B15" s="76"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="64" t="s">
         <v>16</v>
       </c>
@@ -2319,7 +2328,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="73" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -2354,7 +2363,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="76"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="23" t="s">
         <v>19</v>
       </c>
@@ -2385,10 +2394,826 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="76"/>
-      <c r="C18" s="79" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="77" t="s">
         <v>20</v>
       </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="79"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="74"/>
+      <c r="C19" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="74"/>
+      <c r="C20" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="74"/>
+      <c r="C21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="74"/>
+      <c r="C22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="74"/>
+      <c r="C23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="74"/>
+      <c r="C24" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="74"/>
+      <c r="C25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="74"/>
+      <c r="C26" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="74"/>
+      <c r="C27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
+    </row>
+    <row r="28" spans="2:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="76"/>
+      <c r="C28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B34:N34"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B36:N36"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B16:B28"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C18:N18"/>
+    <mergeCell ref="B30:N33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696413C8-CC68-AF42-921D-8658323D51DA}">
+  <dimension ref="B1:T34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D20" sqref="D1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="5" width="39.33203125" customWidth="1"/>
+    <col min="7" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" ht="24" x14ac:dyDescent="0.3">
+      <c r="B2" s="18"/>
+      <c r="C2" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2020</v>
+      </c>
+      <c r="G2" s="21">
+        <v>2021</v>
+      </c>
+      <c r="H2" s="21">
+        <v>2022</v>
+      </c>
+      <c r="I2" s="21">
+        <v>2023</v>
+      </c>
+      <c r="J2" s="22">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="175" x14ac:dyDescent="0.2">
+      <c r="B3" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="2:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="B4" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="B5" s="74"/>
+      <c r="C5" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="B6" s="74"/>
+      <c r="C6" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="75" x14ac:dyDescent="0.2">
+      <c r="B7" s="74"/>
+      <c r="C7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="50" x14ac:dyDescent="0.2">
+      <c r="B8" s="74"/>
+      <c r="C8" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="50" x14ac:dyDescent="0.2">
+      <c r="B9" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="B10" s="75"/>
+      <c r="C10" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="B11" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="24" x14ac:dyDescent="0.2">
+      <c r="B12" s="74"/>
+      <c r="C12" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="76"/>
+      <c r="C13" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+    </row>
+    <row r="15" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+    </row>
+    <row r="16" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
@@ -2399,849 +3224,34 @@
       <c r="K18" s="80"/>
       <c r="L18" s="80"/>
       <c r="M18" s="80"/>
-      <c r="N18" s="81"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="76"/>
-      <c r="C19" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N19" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="76"/>
-      <c r="C20" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="76"/>
-      <c r="C21" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="76"/>
-      <c r="C22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="76"/>
-      <c r="C23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N23" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="76"/>
-      <c r="C24" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="26"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="76"/>
-      <c r="C26" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="26"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="76"/>
-      <c r="C27" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="26"/>
-    </row>
-    <row r="28" spans="2:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="78"/>
-      <c r="C28" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B16:B28"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="B30:N33"/>
-    <mergeCell ref="B34:N34"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B36:N36"/>
-    <mergeCell ref="B12:B15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696413C8-CC68-AF42-921D-8658323D51DA}">
-  <dimension ref="B1:T24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
-    <col min="7" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="18"/>
-      <c r="C2" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="21">
-        <v>2020</v>
-      </c>
-      <c r="G2" s="21">
-        <v>2021</v>
-      </c>
-      <c r="H2" s="21">
-        <v>2022</v>
-      </c>
-      <c r="I2" s="21">
-        <v>2023</v>
-      </c>
-      <c r="J2" s="22">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="175" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" spans="2:20" ht="24" x14ac:dyDescent="0.2">
-      <c r="B4" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="24" x14ac:dyDescent="0.2">
-      <c r="B5" s="76"/>
-      <c r="C5" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="24" x14ac:dyDescent="0.2">
-      <c r="B6" s="76"/>
-      <c r="C6" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="75" x14ac:dyDescent="0.2">
-      <c r="B7" s="76"/>
-      <c r="C7" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="50" x14ac:dyDescent="0.2">
-      <c r="B8" s="76"/>
-      <c r="C8" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="50" x14ac:dyDescent="0.2">
-      <c r="B9" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="24" x14ac:dyDescent="0.2">
-      <c r="B10" s="77"/>
-      <c r="C10" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="24" x14ac:dyDescent="0.2">
-      <c r="B11" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="24" x14ac:dyDescent="0.2">
-      <c r="B12" s="76"/>
-      <c r="C12" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="78"/>
-      <c r="C13" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-    </row>
-    <row r="15" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-    </row>
-    <row r="16" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
     </row>
     <row r="20" spans="2:20" ht="25" x14ac:dyDescent="0.2">
       <c r="B20" s="63" t="s">
@@ -3297,14 +3307,14 @@
       <c r="L22" s="82"/>
     </row>
     <row r="23" spans="2:20" ht="24" x14ac:dyDescent="0.2">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
     </row>
     <row r="24" spans="2:20" ht="24" x14ac:dyDescent="0.3">
       <c r="B24" s="82" t="s">
@@ -3318,6 +3328,20 @@
       <c r="H24" s="82"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3385,7 +3409,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="75" x14ac:dyDescent="0.2">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="74" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="49" t="s">
@@ -3410,7 +3434,7 @@
       <c r="O4" s="45"/>
     </row>
     <row r="5" spans="2:15" ht="50" x14ac:dyDescent="0.2">
-      <c r="B5" s="76"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="49" t="s">
         <v>77</v>
       </c>
@@ -3433,7 +3457,7 @@
       <c r="O5" s="45"/>
     </row>
     <row r="6" spans="2:15" ht="75" x14ac:dyDescent="0.2">
-      <c r="B6" s="76"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="49" t="s">
         <v>79</v>
       </c>
@@ -3482,7 +3506,7 @@
       <c r="O7" s="45"/>
     </row>
     <row r="8" spans="2:15" ht="50" x14ac:dyDescent="0.2">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="73" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="49" t="s">
@@ -3508,7 +3532,7 @@
       <c r="O8" s="45"/>
     </row>
     <row r="9" spans="2:15" ht="25" x14ac:dyDescent="0.2">
-      <c r="B9" s="76"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="49" t="s">
         <v>87</v>
       </c>
@@ -3532,7 +3556,7 @@
       <c r="O9" s="45"/>
     </row>
     <row r="10" spans="2:15" ht="75" x14ac:dyDescent="0.2">
-      <c r="B10" s="76"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="49" t="s">
         <v>89</v>
       </c>
@@ -3556,7 +3580,7 @@
       <c r="O10" s="45"/>
     </row>
     <row r="11" spans="2:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="73" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="49" t="s">
@@ -3582,7 +3606,7 @@
       <c r="O11" s="45"/>
     </row>
     <row r="12" spans="2:15" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="78"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="51" t="s">
         <v>94</v>
       </c>
@@ -3615,30 +3639,30 @@
       <c r="F13" s="83"/>
     </row>
     <row r="14" spans="2:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="2:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4272,7 +4296,7 @@
       <c r="N10" s="26"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="73" t="s">
         <v>142</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -4295,7 +4319,7 @@
       <c r="N11" s="26"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="76"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="23" t="s">
         <v>144</v>
       </c>
@@ -4316,7 +4340,7 @@
       <c r="N12" s="26"/>
     </row>
     <row r="13" spans="2:14" ht="51" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="78"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="66" t="s">
         <v>145</v>
       </c>
